--- a/carriers_source_analyses/kerosene.carrier.xlsx
+++ b/carriers_source_analyses/kerosene.carrier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
@@ -16,6 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -1229,7 +1230,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1456,6 +1457,7 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="355">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2051,6 +2053,26 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2737,7 +2759,7 @@
       </c>
       <c r="E11" s="116">
         <f>'Research data'!G7</f>
-        <v>1.1574275460015774E-2</v>
+        <v>9.327952262183763E-3</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="102"/>
@@ -2812,7 +2834,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -3012,14 +3034,14 @@
       </c>
       <c r="G7" s="112">
         <f>K7</f>
-        <v>1.1574275460015774E-2</v>
+        <v>9.327952262183763E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="112">
         <f>Notes!F87</f>
-        <v>1.1574275460015774E-2</v>
+        <v>9.327952262183763E-3</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -3374,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3557,12 +3579,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="6:11">
+    <row r="82" spans="6:12">
       <c r="J82" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="6:11">
+    <row r="83" spans="6:12">
       <c r="J83" s="24" t="s">
         <v>68</v>
       </c>
@@ -3570,10 +3592,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="6:11">
+    <row r="84" spans="6:12">
       <c r="F84" s="98">
         <f>AVERAGE(K84:K89)</f>
-        <v>1.5200000000000002</v>
+        <v>1.2249999999999999</v>
       </c>
       <c r="G84" s="133" t="s">
         <v>75</v>
@@ -3582,13 +3604,13 @@
         <v>74</v>
       </c>
       <c r="J84" s="134">
-        <v>42005</v>
+        <v>42186</v>
       </c>
       <c r="K84" s="98">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="85" spans="6:11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12">
       <c r="F85" s="98">
         <v>3.7854100000000002</v>
       </c>
@@ -3596,57 +3618,62 @@
         <v>76</v>
       </c>
       <c r="J85" s="134">
-        <v>42036</v>
+        <v>42217</v>
       </c>
       <c r="K85" s="98">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="86" spans="6:11">
+        <v>1.25</v>
+      </c>
+      <c r="L85" s="148"/>
+    </row>
+    <row r="86" spans="6:12">
       <c r="F86" s="98">
         <f>F84/litre_per_gallon</f>
-        <v>0.40154170882414325</v>
+        <v>0.32361091665103642</v>
       </c>
       <c r="G86" s="133" t="s">
         <v>58</v>
       </c>
       <c r="J86" s="134">
-        <v>42064</v>
+        <v>42248</v>
       </c>
       <c r="K86" s="98">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="87" spans="6:11">
+        <v>1.24</v>
+      </c>
+      <c r="L86" s="148"/>
+    </row>
+    <row r="87" spans="6:12">
       <c r="F87" s="135">
         <f>F86/F71</f>
-        <v>1.1574275460015774E-2</v>
+        <v>9.327952262183763E-3</v>
       </c>
       <c r="G87" s="133" t="s">
         <v>44</v>
       </c>
       <c r="J87" s="134">
-        <v>42095</v>
+        <v>42278</v>
       </c>
       <c r="K87" s="98">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="88" spans="6:11">
+        <v>1.24</v>
+      </c>
+      <c r="L87" s="148"/>
+    </row>
+    <row r="88" spans="6:12">
       <c r="J88" s="134">
-        <v>42125</v>
+        <v>42309</v>
       </c>
       <c r="K88" s="98">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="89" spans="6:11">
+        <v>1.23</v>
+      </c>
+      <c r="L88" s="148"/>
+    </row>
+    <row r="89" spans="6:12">
       <c r="J89" s="134">
-        <v>42156</v>
+        <v>42339</v>
       </c>
       <c r="K89" s="98">
-        <v>1.54</v>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="L89" s="148"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/carriers_source_analyses/kerosene.carrier.xlsx
+++ b/carriers_source_analyses/kerosene.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="35340" yWindow="-340" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -16,7 +21,6 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -34,8 +38,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -232,9 +239,6 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
-  </si>
-  <si>
     <t>Not used in the ETM, as this calculates CO2 for primary carriers</t>
   </si>
   <si>
@@ -284,6 +288,11 @@
   </si>
   <si>
     <t>StatOil</t>
+  </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
   </si>
 </sst>
 </file>
@@ -297,7 +306,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,11 +497,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1416,7 +1420,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1430,6 +1434,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1457,7 +1462,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="355">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1818,80 +1822,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1935,7 +1874,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2048,12 +1987,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2062,24 +2002,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2414,42 +2337,42 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.25" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -2458,7 +2381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -2467,17 +2390,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="75" t="s">
         <v>14</v>
@@ -2485,13 +2408,13 @@
       <c r="C9" s="76"/>
       <c r="D9" s="126"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
       <c r="D10" s="127"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="77" t="s">
         <v>15</v>
@@ -2501,7 +2424,7 @@
       </c>
       <c r="D11" s="127"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="77"/>
       <c r="C12" s="18" t="s">
@@ -2509,7 +2432,7 @@
       </c>
       <c r="D12" s="127"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
@@ -2517,7 +2440,7 @@
       </c>
       <c r="D13" s="127"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
@@ -2525,13 +2448,13 @@
       </c>
       <c r="D14" s="127"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
       <c r="D15" s="127"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="77" t="s">
         <v>20</v>
@@ -2541,7 +2464,7 @@
       </c>
       <c r="D16" s="127"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
@@ -2549,7 +2472,7 @@
       </c>
       <c r="D17" s="127"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
@@ -2557,7 +2480,7 @@
       </c>
       <c r="D18" s="127"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
@@ -2565,7 +2488,7 @@
       </c>
       <c r="D19" s="127"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
@@ -2573,7 +2496,7 @@
       </c>
       <c r="D20" s="127"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
@@ -2581,7 +2504,7 @@
       </c>
       <c r="D21" s="127"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
@@ -2589,14 +2512,14 @@
       </c>
       <c r="D22" s="127"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="127"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="128"/>
       <c r="C24" s="129"/>
       <c r="D24" s="130"/>
@@ -2604,74 +2527,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="142"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
+    <row r="4" spans="2:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2682,7 +2602,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -2703,7 +2623,7 @@
       </c>
       <c r="J7" s="92"/>
     </row>
-    <row r="8" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -2714,7 +2634,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="125" t="s">
         <v>61</v>
@@ -2727,7 +2647,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="97" t="s">
         <v>36</v>
@@ -2749,7 +2669,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="102" t="s">
         <v>37</v>
@@ -2765,11 +2685,11 @@
       <c r="G11" s="102"/>
       <c r="H11" s="30"/>
       <c r="I11" s="136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="102" t="s">
         <v>59</v>
@@ -2785,14 +2705,14 @@
       <c r="G12" s="102"/>
       <c r="H12" s="30"/>
       <c r="I12" s="136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>52</v>
@@ -2805,11 +2725,11 @@
       <c r="G13" s="102"/>
       <c r="H13" s="30"/>
       <c r="I13" s="136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -2826,43 +2746,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2877,30 +2760,29 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="66" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="66" customWidth="1"/>
     <col min="17" max="17" width="60" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="65"/>
+    <col min="18" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -2918,7 +2800,7 @@
       <c r="P2" s="69"/>
       <c r="Q2" s="70"/>
     </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+    <row r="3" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="96" t="s">
         <v>29</v>
@@ -2933,11 +2815,11 @@
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
@@ -2952,7 +2834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -2970,7 +2852,7 @@
       <c r="P4" s="95"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
         <v>45</v>
@@ -2990,7 +2872,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="105" t="s">
         <v>36</v>
@@ -3018,7 +2900,7 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>37</v>
@@ -3050,7 +2932,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="123"/>
     </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="124" t="s">
         <v>59</v>
@@ -3082,10 +2964,10 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="114"/>
     </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
@@ -3110,7 +2992,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="107" t="s">
         <v>38</v>
@@ -3135,10 +3017,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="131" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="117"/>
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
@@ -3159,11 +3041,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3178,23 +3055,23 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="45"/>
+    <col min="7" max="7" width="10.28515625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3207,7 +3084,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="48"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>10</v>
@@ -3222,7 +3099,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3235,7 +3112,7 @@
       <c r="K4" s="54"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>12</v>
@@ -3264,7 +3141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -3277,14 +3154,14 @@
       <c r="K6" s="52"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="2:12" ht="16">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="113" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="115" t="s">
         <v>50</v>
@@ -3304,7 +3181,7 @@
       </c>
       <c r="L7" s="111"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="113" t="s">
         <v>38</v>
@@ -3318,10 +3195,10 @@
       <c r="J8" s="54"/>
       <c r="L8" s="64"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="108"/>
@@ -3332,7 +3209,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="64"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="113"/>
       <c r="D10" s="59"/>
@@ -3345,14 +3222,14 @@
       <c r="K10" s="54"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="113" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="110"/>
       <c r="G11" s="60" t="s">
@@ -3369,26 +3246,21 @@
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="138" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3400,19 +3272,19 @@
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="98" customWidth="1"/>
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
     <col min="3" max="5" width="7" style="98"/>
     <col min="6" max="6" width="12" style="98" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="98"/>
-    <col min="8" max="8" width="8.875" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="24" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="100"/>
       <c r="C2" s="101" t="s">
         <v>24</v>
@@ -3440,7 +3312,7 @@
       <c r="T2" s="101"/>
       <c r="U2" s="101"/>
     </row>
-    <row r="3" spans="2:25" customFormat="1" ht="16">
+    <row r="3" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="99"/>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
@@ -3466,27 +3338,27 @@
       <c r="X3" s="108"/>
       <c r="Y3" s="108"/>
     </row>
-    <row r="4" spans="2:25" ht="16">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C5" s="98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F8" s="133" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="F9" s="133" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:25">
-      <c r="F9" s="133" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F69" s="98">
         <v>0.80400000000000005</v>
       </c>
@@ -3494,7 +3366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="2:25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F70" s="98">
         <v>43.15</v>
       </c>
@@ -3502,7 +3374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="2:25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F71" s="98">
         <f>F69*F70</f>
         <v>34.692599999999999</v>
@@ -3511,8 +3383,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="2:25" ht="16" thickBot="1"/>
-    <row r="77" spans="2:25" s="24" customFormat="1">
+    <row r="76" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="100"/>
       <c r="C77" s="101" t="s">
         <v>24</v>
@@ -3540,7 +3412,7 @@
       <c r="T77" s="101"/>
       <c r="U77" s="101"/>
     </row>
-    <row r="78" spans="2:25" customFormat="1" ht="16">
+    <row r="78" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="99"/>
       <c r="C78" s="108"/>
       <c r="D78" s="108"/>
@@ -3566,42 +3438,42 @@
       <c r="X78" s="108"/>
       <c r="Y78" s="108"/>
     </row>
-    <row r="79" spans="2:25" ht="16">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C79" s="98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="2:25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F80" s="133" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J82" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="6:12">
-      <c r="J82" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="6:12">
+    <row r="83" spans="6:12" x14ac:dyDescent="0.2">
       <c r="J83" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K83" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="6:12">
+    </row>
+    <row r="84" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F84" s="98">
         <f>AVERAGE(K84:K89)</f>
         <v>1.2249999999999999</v>
       </c>
       <c r="G84" s="133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H84" s="133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J84" s="134">
         <v>42186</v>
@@ -3610,12 +3482,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="85" spans="6:12">
+    <row r="85" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F85" s="98">
         <v>3.7854100000000002</v>
       </c>
       <c r="G85" s="133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J85" s="134">
         <v>42217</v>
@@ -3623,9 +3495,9 @@
       <c r="K85" s="98">
         <v>1.25</v>
       </c>
-      <c r="L85" s="148"/>
-    </row>
-    <row r="86" spans="6:12">
+      <c r="L85" s="139"/>
+    </row>
+    <row r="86" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F86" s="98">
         <f>F84/litre_per_gallon</f>
         <v>0.32361091665103642</v>
@@ -3639,9 +3511,9 @@
       <c r="K86" s="98">
         <v>1.24</v>
       </c>
-      <c r="L86" s="148"/>
-    </row>
-    <row r="87" spans="6:12">
+      <c r="L86" s="139"/>
+    </row>
+    <row r="87" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F87" s="135">
         <f>F86/F71</f>
         <v>9.327952262183763E-3</v>
@@ -3655,34 +3527,29 @@
       <c r="K87" s="98">
         <v>1.24</v>
       </c>
-      <c r="L87" s="148"/>
-    </row>
-    <row r="88" spans="6:12">
+      <c r="L87" s="139"/>
+    </row>
+    <row r="88" spans="6:12" x14ac:dyDescent="0.2">
       <c r="J88" s="134">
         <v>42309</v>
       </c>
       <c r="K88" s="98">
         <v>1.23</v>
       </c>
-      <c r="L88" s="148"/>
-    </row>
-    <row r="89" spans="6:12">
+      <c r="L88" s="139"/>
+    </row>
+    <row r="89" spans="6:12" x14ac:dyDescent="0.2">
       <c r="J89" s="134">
         <v>42339</v>
       </c>
       <c r="K89" s="98">
         <v>0.99</v>
       </c>
-      <c r="L89" s="148"/>
+      <c r="L89" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/kerosene.carrier.xlsx
+++ b/carriers_source_analyses/kerosene.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="-340" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26920" tabRatio="762" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Source</t>
   </si>
@@ -206,9 +205,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Source 3</t>
-  </si>
-  <si>
     <t>kg/L</t>
   </si>
   <si>
@@ -221,12 +217,6 @@
     <t>NL</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>Jan 2015</t>
-  </si>
-  <si>
     <t>EUR/L</t>
   </si>
   <si>
@@ -239,9 +229,6 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>Not used in the ETM, as this calculates CO2 for primary carriers</t>
-  </si>
-  <si>
     <t>kg_per_liter</t>
   </si>
   <si>
@@ -270,9 +257,6 @@
   </si>
   <si>
     <t>EUR/Gallon</t>
-  </si>
-  <si>
-    <t>6 month average 2015</t>
   </si>
   <si>
     <t>EUR/US Gallon</t>
@@ -293,6 +277,21 @@
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>https://www.ipcc.ch/ipccreports/sres/aviation/110.htm</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>5 month average</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Dec 2017</t>
   </si>
 </sst>
 </file>
@@ -306,12 +305,26 @@
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -437,6 +450,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,6 +458,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,6 +466,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,6 +474,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,17 +482,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,6 +509,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,592 +897,601 @@
   </borders>
   <cellStyleXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="355">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1870,6 +1900,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>506343</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>134730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5554869" y="18288000"/>
+          <a:ext cx="5829300" cy="2387600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1981,28 +2049,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2339,11 +2385,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2366,10 +2412,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2535,25 +2581,25 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -2563,28 +2609,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="140" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="B2" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -2637,7 +2683,7 @@
     <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="125" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -2679,20 +2725,20 @@
       </c>
       <c r="E11" s="116">
         <f>'Research data'!G7</f>
-        <v>9.327952262183763E-3</v>
+        <v>1.0081803098066371E-2</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="102"/>
       <c r="H11" s="30"/>
       <c r="I11" s="136" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="102" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>43</v>
@@ -2705,17 +2751,17 @@
       <c r="G12" s="102"/>
       <c r="H12" s="30"/>
       <c r="I12" s="136" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="132" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="122">
         <f>'Research data'!G9</f>
@@ -2725,20 +2771,40 @@
       <c r="G13" s="102"/>
       <c r="H13" s="30"/>
       <c r="I13" s="136" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+    <row r="14" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="122">
+        <f>'Research data'!G10</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2757,28 +2823,28 @@
   <dimension ref="B1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="66" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="66" customWidth="1"/>
     <col min="17" max="17" width="60" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="65"/>
+    <col min="18" max="16384" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2815,15 +2881,15 @@
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
@@ -2916,14 +2982,14 @@
       </c>
       <c r="G7" s="112">
         <f>K7</f>
-        <v>9.327952262183763E-3</v>
+        <v>1.0081803098066371E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="112">
         <f>Notes!F87</f>
-        <v>9.327952262183763E-3</v>
+        <v>1.0081803098066371E-2</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -2935,7 +3001,7 @@
     <row r="8" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="124" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="106" t="s">
         <v>42</v>
@@ -2967,12 +3033,12 @@
     <row r="9" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="124" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
       <c r="F9" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="121">
         <f>I9</f>
@@ -3006,19 +3072,23 @@
       <c r="F10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="122"/>
+      <c r="G10" s="122">
+        <f>M10</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="M10" s="142">
+        <f>Notes!F96</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="131" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q10" s="131"/>
     </row>
     <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="117"/>
@@ -3032,7 +3102,7 @@
       <c r="J11" s="119"/>
       <c r="K11" s="119"/>
       <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
+      <c r="M11" s="141"/>
       <c r="N11" s="119"/>
       <c r="O11" s="119"/>
       <c r="P11" s="119"/>
@@ -3051,23 +3121,23 @@
   </sheetPr>
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="45"/>
+    <col min="7" max="7" width="10.33203125" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3157,11 +3227,11 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="113" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="137" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7" s="115" t="s">
         <v>50</v>
@@ -3170,14 +3240,14 @@
         <v>49</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="111"/>
     </row>
@@ -3198,7 +3268,7 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="108"/>
@@ -3229,24 +3299,24 @@
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="45" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F11" s="110"/>
       <c r="G11" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="138" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -3266,20 +3336,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y89"/>
+  <dimension ref="B1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="98" customWidth="1"/>
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
     <col min="3" max="5" width="7" style="98"/>
     <col min="6" max="6" width="12" style="98" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="98"/>
-    <col min="8" max="8" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="98" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
@@ -3344,18 +3414,18 @@
       <c r="G4"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C5" s="98" t="s">
-        <v>65</v>
+      <c r="C5" s="140" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F8" s="133" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F9" s="133" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.2">
@@ -3363,7 +3433,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="G69" s="133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.2">
@@ -3440,7 +3510,7 @@
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C79" s="98" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
@@ -3448,104 +3518,178 @@
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F80" s="133" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="6:12" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J82" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="6:12" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J83" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="6:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F84" s="98">
-        <f>AVERAGE(K84:K89)</f>
-        <v>1.2249999999999999</v>
+        <f>AVERAGE(K84:K88)</f>
+        <v>1.3240000000000001</v>
       </c>
       <c r="G84" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="H84" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="J84" s="134">
-        <v>42186</v>
-      </c>
-      <c r="K84" s="98">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="85" spans="6:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H84" s="155" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" s="153">
+        <v>42887</v>
+      </c>
+      <c r="K84">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L84" s="154">
+        <v>-9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F85" s="98">
         <v>3.7854100000000002</v>
       </c>
       <c r="G85" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="J85" s="134">
-        <v>42217</v>
-      </c>
-      <c r="K85" s="98">
-        <v>1.25</v>
-      </c>
-      <c r="L85" s="139"/>
-    </row>
-    <row r="86" spans="6:12" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="J85" s="153">
+        <v>42917</v>
+      </c>
+      <c r="K85">
+        <v>1.23</v>
+      </c>
+      <c r="L85" s="154">
+        <v>6.6799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F86" s="98">
         <f>F84/litre_per_gallon</f>
-        <v>0.32361091665103642</v>
+        <v>0.3497639621599774</v>
       </c>
       <c r="G86" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="J86" s="134">
-        <v>42248</v>
-      </c>
-      <c r="K86" s="98">
-        <v>1.24</v>
-      </c>
-      <c r="L86" s="139"/>
-    </row>
-    <row r="87" spans="6:12" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="J86" s="153">
+        <v>42948</v>
+      </c>
+      <c r="K86">
+        <v>1.32</v>
+      </c>
+      <c r="L86" s="154">
+        <v>7.4700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F87" s="135">
         <f>F86/F71</f>
-        <v>9.327952262183763E-3</v>
+        <v>1.0081803098066371E-2</v>
       </c>
       <c r="G87" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="J87" s="134">
-        <v>42278</v>
-      </c>
-      <c r="K87" s="98">
-        <v>1.24</v>
-      </c>
-      <c r="L87" s="139"/>
-    </row>
-    <row r="88" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="J88" s="134">
-        <v>42309</v>
-      </c>
-      <c r="K88" s="98">
-        <v>1.23</v>
-      </c>
-      <c r="L88" s="139"/>
-    </row>
-    <row r="89" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="J89" s="134">
-        <v>42339</v>
-      </c>
-      <c r="K89" s="98">
-        <v>0.99</v>
-      </c>
+      <c r="J87" s="153">
+        <v>42979</v>
+      </c>
+      <c r="K87">
+        <v>1.51</v>
+      </c>
+      <c r="L87" s="154">
+        <v>0.1426</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="J88" s="153">
+        <v>43009</v>
+      </c>
+      <c r="K88">
+        <v>1.41</v>
+      </c>
+      <c r="L88" s="154">
+        <v>-6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="J89" s="134"/>
       <c r="L89" s="139"/>
+    </row>
+    <row r="90" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="100"/>
+      <c r="C91" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="101"/>
+      <c r="O91" s="101"/>
+      <c r="P91" s="101"/>
+      <c r="Q91" s="101"/>
+      <c r="R91" s="101"/>
+      <c r="S91" s="101"/>
+      <c r="T91" s="101"/>
+      <c r="U91" s="101"/>
+    </row>
+    <row r="92" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="99"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="108"/>
+      <c r="K92" s="108"/>
+      <c r="L92" s="108"/>
+      <c r="M92" s="108"/>
+      <c r="N92" s="108"/>
+      <c r="O92" s="108"/>
+      <c r="P92" s="108"/>
+      <c r="Q92" s="108"/>
+      <c r="R92" s="108"/>
+      <c r="S92" s="108"/>
+      <c r="T92" s="108"/>
+      <c r="U92" s="108"/>
+      <c r="V92" s="108"/>
+      <c r="W92" s="108"/>
+      <c r="X92" s="108"/>
+      <c r="Y92" s="108"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C93" s="140" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="F96" s="98">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G96" s="140" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
